--- a/backend/storage/app/xlsx/seed_cidades_se.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_se.xlsx
@@ -23,7 +23,7 @@
     <t>AMPARENSE</t>
   </si>
   <si>
-    <t>68cc3679-b849-4311-a61b-ab815b395467</t>
+    <t>a40c8168-f828-4d96-a808-d1e24971ab82</t>
   </si>
   <si>
     <t>AQUIDABÃ</t>

--- a/backend/storage/app/xlsx/seed_cidades_se.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_se.xlsx
@@ -23,7 +23,7 @@
     <t>AMPARENSE</t>
   </si>
   <si>
-    <t>a40c8168-f828-4d96-a808-d1e24971ab82</t>
+    <t>a79f1736-15f3-41ae-97bb-f220c892c3b5</t>
   </si>
   <si>
     <t>AQUIDABÃ</t>

--- a/backend/storage/app/xlsx/seed_cidades_se.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_se.xlsx
@@ -23,7 +23,7 @@
     <t>AMPARENSE</t>
   </si>
   <si>
-    <t>a79f1736-15f3-41ae-97bb-f220c892c3b5</t>
+    <t>c64c4f1b-c516-4e9e-a881-e3be74beb8c9</t>
   </si>
   <si>
     <t>AQUIDABÃ</t>

--- a/backend/storage/app/xlsx/seed_cidades_se.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_se.xlsx
@@ -23,7 +23,7 @@
     <t>AMPARENSE</t>
   </si>
   <si>
-    <t>c64c4f1b-c516-4e9e-a881-e3be74beb8c9</t>
+    <t>57a32676-ef01-4882-a186-7bc77e2b2bc0</t>
   </si>
   <si>
     <t>AQUIDABÃ</t>

--- a/backend/storage/app/xlsx/seed_cidades_se.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_se.xlsx
@@ -23,7 +23,7 @@
     <t>AMPARENSE</t>
   </si>
   <si>
-    <t>57a32676-ef01-4882-a186-7bc77e2b2bc0</t>
+    <t>01b8de61-3a41-4f26-b698-4851ee084151</t>
   </si>
   <si>
     <t>AQUIDABÃ</t>

--- a/backend/storage/app/xlsx/seed_cidades_se.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_se.xlsx
@@ -23,7 +23,7 @@
     <t>AMPARENSE</t>
   </si>
   <si>
-    <t>01b8de61-3a41-4f26-b698-4851ee084151</t>
+    <t>3b4eb311-3623-4fa5-a8c2-6f711cb30c34</t>
   </si>
   <si>
     <t>AQUIDABÃ</t>
